--- a/reference/git使用方法.xlsx
+++ b/reference/git使用方法.xlsx
@@ -9,14 +9,16 @@
   <sheets>
     <sheet name="ファイル構成" sheetId="1" r:id="rId1"/>
     <sheet name="main" sheetId="2" r:id="rId2"/>
-    <sheet name="ローカルでのやりかた" sheetId="3" r:id="rId3"/>
+    <sheet name="プルについて" sheetId="5" r:id="rId3"/>
+    <sheet name="参考程度に→" sheetId="4" r:id="rId4"/>
+    <sheet name="ローカルでのやりかた" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>とりあえずのお試しです！！</t>
     <rPh sb="7" eb="8">
@@ -437,6 +439,107 @@
     </rPh>
     <rPh sb="53" eb="54">
       <t>タス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他人が修正した個所をローカルに持ってきたい場合（最新のソースコードにしたい場合）</t>
+    <rPh sb="0" eb="2">
+      <t>タニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルをしてください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注意</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最新のリヴィジョンの物を持ってくる仕様のため定期的にかつ作業を行う前にプルを実行してください</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>テイキテキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自分の作業が消えても責任は持ちません。また強制プッシュして他人の作業データを消すのもご法度です</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タニン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハット</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -765,101 +868,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1547,6 +1650,48 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>620301</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>147003</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="38018" t="313" b="-1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100853" y="1568822"/>
+          <a:ext cx="8038595" cy="7150681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2039,67 +2184,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -2110,54 +2255,54 @@
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="3"/>
       <c r="D14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="C17" s="3"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="C18" s="3"/>
+      <c r="C18" s="1"/>
       <c r="D18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="C20" s="3"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="D21" s="8"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
@@ -2165,7 +2310,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2185,14 +2330,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I257"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C265" sqref="C265"/>
+    <sheetView topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="2:2" ht="17.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2248,107 +2393,107 @@
     </row>
     <row r="247" spans="1:9" ht="14.25" thickBot="1"/>
     <row r="248" spans="1:9" ht="19.5" thickTop="1">
-      <c r="A248" s="29" t="s">
+      <c r="A248" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B248" s="22"/>
-      <c r="C248" s="22"/>
-      <c r="D248" s="22"/>
-      <c r="E248" s="22"/>
-      <c r="F248" s="22"/>
-      <c r="G248" s="22"/>
-      <c r="H248" s="22"/>
-      <c r="I248" s="23"/>
+      <c r="B248" s="19"/>
+      <c r="C248" s="19"/>
+      <c r="D248" s="19"/>
+      <c r="E248" s="19"/>
+      <c r="F248" s="19"/>
+      <c r="G248" s="19"/>
+      <c r="H248" s="19"/>
+      <c r="I248" s="20"/>
     </row>
     <row r="249" spans="1:9" ht="15" customHeight="1">
-      <c r="A249" s="24"/>
-      <c r="B249" s="17"/>
-      <c r="C249" s="17"/>
-      <c r="D249" s="17"/>
-      <c r="E249" s="17"/>
-      <c r="F249" s="17"/>
-      <c r="G249" s="17"/>
-      <c r="H249" s="17"/>
-      <c r="I249" s="25"/>
+      <c r="A249" s="21"/>
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="14"/>
+      <c r="F249" s="14"/>
+      <c r="G249" s="14"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="22"/>
     </row>
     <row r="250" spans="1:9" ht="65.25" customHeight="1">
-      <c r="A250" s="30" t="s">
+      <c r="A250" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B250" s="31"/>
-      <c r="C250" s="31"/>
-      <c r="D250" s="31"/>
-      <c r="E250" s="31"/>
-      <c r="F250" s="31"/>
-      <c r="G250" s="31"/>
-      <c r="H250" s="31"/>
-      <c r="I250" s="32"/>
+      <c r="B250" s="30"/>
+      <c r="C250" s="30"/>
+      <c r="D250" s="30"/>
+      <c r="E250" s="30"/>
+      <c r="F250" s="30"/>
+      <c r="G250" s="30"/>
+      <c r="H250" s="30"/>
+      <c r="I250" s="31"/>
     </row>
     <row r="251" spans="1:9" hidden="1">
-      <c r="A251" s="24"/>
-      <c r="B251" s="17"/>
-      <c r="C251" s="17"/>
-      <c r="D251" s="17"/>
-      <c r="E251" s="17"/>
-      <c r="F251" s="17"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="17"/>
-      <c r="I251" s="25"/>
+      <c r="A251" s="21"/>
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="14"/>
+      <c r="F251" s="14"/>
+      <c r="G251" s="14"/>
+      <c r="H251" s="14"/>
+      <c r="I251" s="22"/>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="24"/>
-      <c r="B252" s="17"/>
-      <c r="C252" s="17"/>
-      <c r="D252" s="17"/>
-      <c r="E252" s="17"/>
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="17"/>
-      <c r="I252" s="25"/>
+      <c r="A252" s="21"/>
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="14"/>
+      <c r="F252" s="14"/>
+      <c r="G252" s="14"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="22"/>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="24"/>
-      <c r="B253" s="17"/>
-      <c r="C253" s="17"/>
-      <c r="D253" s="17"/>
-      <c r="E253" s="17"/>
-      <c r="F253" s="17"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="17"/>
-      <c r="I253" s="25"/>
+      <c r="A253" s="21"/>
+      <c r="B253" s="14"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="14"/>
+      <c r="F253" s="14"/>
+      <c r="G253" s="14"/>
+      <c r="H253" s="14"/>
+      <c r="I253" s="22"/>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="24"/>
-      <c r="B254" s="17"/>
-      <c r="C254" s="17"/>
-      <c r="D254" s="17"/>
-      <c r="E254" s="17"/>
-      <c r="F254" s="17"/>
-      <c r="G254" s="17"/>
-      <c r="H254" s="17"/>
-      <c r="I254" s="25"/>
+      <c r="A254" s="21"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="14"/>
+      <c r="F254" s="14"/>
+      <c r="G254" s="14"/>
+      <c r="H254" s="14"/>
+      <c r="I254" s="22"/>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="24"/>
-      <c r="B255" s="17"/>
-      <c r="C255" s="17"/>
-      <c r="D255" s="17"/>
-      <c r="E255" s="17"/>
-      <c r="F255" s="17"/>
-      <c r="G255" s="17"/>
-      <c r="H255" s="17"/>
-      <c r="I255" s="25"/>
+      <c r="A255" s="21"/>
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="14"/>
+      <c r="F255" s="14"/>
+      <c r="G255" s="14"/>
+      <c r="H255" s="14"/>
+      <c r="I255" s="22"/>
     </row>
     <row r="256" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A256" s="26"/>
-      <c r="B256" s="27"/>
-      <c r="C256" s="27"/>
-      <c r="D256" s="27"/>
-      <c r="E256" s="27"/>
-      <c r="F256" s="27"/>
-      <c r="G256" s="27"/>
-      <c r="H256" s="27"/>
-      <c r="I256" s="28"/>
+      <c r="A256" s="23"/>
+      <c r="B256" s="24"/>
+      <c r="C256" s="24"/>
+      <c r="D256" s="24"/>
+      <c r="E256" s="24"/>
+      <c r="F256" s="24"/>
+      <c r="G256" s="24"/>
+      <c r="H256" s="24"/>
+      <c r="I256" s="25"/>
     </row>
     <row r="257" ht="14.25" thickTop="1"/>
   </sheetData>
@@ -2363,10 +2508,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+  </sheetPr>
   <dimension ref="A3:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2386,12 +2591,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:2" s="32" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="12" customFormat="1"/>
+    <row r="15" spans="1:2" s="32" customFormat="1"/>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>27</v>
@@ -2413,63 +2618,63 @@
       </c>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="15"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="12"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="18"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="15"/>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="18"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="15"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="18"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="15"/>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="21"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
